--- a/lab8/distance regression.xlsx
+++ b/lab8/distance regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nctuitsc-my.sharepoint.com/personal/samuel95207_eed07_o365_nctu_edu_tw/Documents/學校科目/無人機自動飛航與電腦視覺概論/code/lab8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{FBEE34D2-2740-48FB-B18F-08C0AE9F4345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0F05A86B-C567-4E91-B719-335922313533}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{FBEE34D2-2740-48FB-B18F-08C0AE9F4345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{22E41528-9D57-46A7-A891-A6E121A3E2F7}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="2868" windowWidth="17280" windowHeight="10182" xr2:uid="{CFF35C8D-819A-40CB-948B-A39350B848BA}"/>
+    <workbookView xWindow="5760" yWindow="2868" windowWidth="17280" windowHeight="10182" xr2:uid="{CFF35C8D-819A-40CB-948B-A39350B848BA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +59,17 @@
     <t>body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">                                                                                                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AD10FA-6DE1-43C3-92D0-8814D92EC9DF}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1542,6 +1546,9 @@
         <v>80</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
